--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY1"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,10 +684,157 @@
           <t>OPN10</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Clusters</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
